--- a/Final Result.xlsx
+++ b/Final Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajas\Documents\UiPath\Excel task 103\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8A91A9-3F68-4B65-AB0D-89B0C26AAD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A566BB8-DA00-489F-92AF-40CB9D1ED941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1695" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="172">
   <si>
     <t xml:space="preserve">Document                 </t>
   </si>
@@ -63,10 +63,7 @@
     <t>Customer Invoice/Pmt Doc Type</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>INVOICE NO</t>
+    <t>INVOICE DATE</t>
   </si>
   <si>
     <t>AMOUNT</t>
@@ -96,9 +93,6 @@
     <t xml:space="preserve">                    </t>
   </si>
   <si>
-    <t>D01061819</t>
-  </si>
-  <si>
     <t>Obsolete</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t xml:space="preserve"> 27-07-2020 </t>
   </si>
   <si>
-    <t>D01064785</t>
-  </si>
-  <si>
     <t>Paid</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t xml:space="preserve">     </t>
   </si>
   <si>
-    <t>D01065253</t>
-  </si>
-  <si>
     <t>Post</t>
   </si>
   <si>
@@ -144,9 +132,6 @@
     <t xml:space="preserve"> 07-10-2020 </t>
   </si>
   <si>
-    <t>D01065782</t>
-  </si>
-  <si>
     <t>ISI-22031657</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t xml:space="preserve"> 17-10-2020 </t>
   </si>
   <si>
-    <t>D01065913</t>
-  </si>
-  <si>
     <t>Under Process</t>
   </si>
   <si>
@@ -171,27 +153,18 @@
     <t xml:space="preserve">ISI 21832677        </t>
   </si>
   <si>
-    <t>SR2000026</t>
-  </si>
-  <si>
     <t>ICN-22030040</t>
   </si>
   <si>
     <t xml:space="preserve">ISI 21930750        </t>
   </si>
   <si>
-    <t>SR2000039</t>
-  </si>
-  <si>
     <t>ICN-22030043</t>
   </si>
   <si>
     <t xml:space="preserve">ISI 22030256        </t>
   </si>
   <si>
-    <t>SR2000044</t>
-  </si>
-  <si>
     <t>ISI-21930750</t>
   </si>
   <si>
@@ -201,9 +174,6 @@
     <t xml:space="preserve"> 06-07-2019 </t>
   </si>
   <si>
-    <t>D01059271</t>
-  </si>
-  <si>
     <t>ISI-22030256</t>
   </si>
   <si>
@@ -213,9 +183,6 @@
     <t xml:space="preserve"> 10-05-2020 </t>
   </si>
   <si>
-    <t>D01063658</t>
-  </si>
-  <si>
     <t>ISI-22030842</t>
   </si>
   <si>
@@ -225,24 +192,15 @@
     <t xml:space="preserve"> 12-07-2020 </t>
   </si>
   <si>
-    <t>D01064550</t>
-  </si>
-  <si>
     <t>ISI-22030843</t>
   </si>
   <si>
-    <t>D01064551</t>
-  </si>
-  <si>
     <t>ISI-22030909</t>
   </si>
   <si>
     <t xml:space="preserve"> 20-04-2020 </t>
   </si>
   <si>
-    <t>D01064662</t>
-  </si>
-  <si>
     <t>ISI-22031055</t>
   </si>
   <si>
@@ -252,9 +210,6 @@
     <t xml:space="preserve"> 04-08-2020 </t>
   </si>
   <si>
-    <t>D01064893</t>
-  </si>
-  <si>
     <t>ISI-22031065</t>
   </si>
   <si>
@@ -264,18 +219,12 @@
     <t xml:space="preserve"> 05-08-2020 </t>
   </si>
   <si>
-    <t>D01064916</t>
-  </si>
-  <si>
     <t>ISI-22031068</t>
   </si>
   <si>
     <t xml:space="preserve"> 08-08-2020 </t>
   </si>
   <si>
-    <t>D01064917</t>
-  </si>
-  <si>
     <t>ISI-22031096</t>
   </si>
   <si>
@@ -285,15 +234,9 @@
     <t xml:space="preserve"> 12-08-2020 </t>
   </si>
   <si>
-    <t>D01064948</t>
-  </si>
-  <si>
     <t>ISI-22031101</t>
   </si>
   <si>
-    <t>D01064961</t>
-  </si>
-  <si>
     <t>ISI-22031152</t>
   </si>
   <si>
@@ -303,9 +246,6 @@
     <t xml:space="preserve"> 22-08-2020 </t>
   </si>
   <si>
-    <t>D01065038</t>
-  </si>
-  <si>
     <t>ISI-22031172</t>
   </si>
   <si>
@@ -315,111 +255,57 @@
     <t xml:space="preserve"> 29-08-2020 </t>
   </si>
   <si>
-    <t>D01065121</t>
-  </si>
-  <si>
     <t>ISI-22031173</t>
   </si>
   <si>
-    <t>D01065133</t>
-  </si>
-  <si>
     <t>ISI-22031174</t>
   </si>
   <si>
-    <t>D01065132</t>
-  </si>
-  <si>
     <t>ISI-22031175</t>
   </si>
   <si>
-    <t>D01065131</t>
-  </si>
-  <si>
     <t>ISI-22031176</t>
   </si>
   <si>
-    <t>D01065130</t>
-  </si>
-  <si>
     <t>ISI-22031179</t>
   </si>
   <si>
-    <t>D01065128</t>
-  </si>
-  <si>
     <t>ISI-22031181</t>
   </si>
   <si>
-    <t>D01065138</t>
-  </si>
-  <si>
     <t>ISI-22031203</t>
   </si>
   <si>
-    <t>D01065195</t>
-  </si>
-  <si>
     <t>ISI-22031214</t>
   </si>
   <si>
-    <t>D01065126</t>
-  </si>
-  <si>
     <t>ISI-22031215</t>
   </si>
   <si>
-    <t>D01065125</t>
-  </si>
-  <si>
     <t>ISI-22031216</t>
   </si>
   <si>
-    <t>D01065124</t>
-  </si>
-  <si>
     <t>ISI-22031239</t>
   </si>
   <si>
-    <t>D01065120</t>
-  </si>
-  <si>
     <t>ISI-22031240</t>
   </si>
   <si>
-    <t>D01065119</t>
-  </si>
-  <si>
     <t>ISI-22031241</t>
   </si>
   <si>
-    <t>D01065134</t>
-  </si>
-  <si>
     <t>ISI-22031242</t>
   </si>
   <si>
-    <t>D01065118</t>
-  </si>
-  <si>
     <t>ISI-22031243</t>
   </si>
   <si>
-    <t>D01065117</t>
-  </si>
-  <si>
     <t>ISI-22031258</t>
   </si>
   <si>
-    <t>D01065244</t>
-  </si>
-  <si>
     <t>ISI-22031260</t>
   </si>
   <si>
-    <t>D01065242</t>
-  </si>
-  <si>
     <t>ISI-22031305</t>
   </si>
   <si>
@@ -429,27 +315,15 @@
     <t xml:space="preserve"> 12-09-2020 </t>
   </si>
   <si>
-    <t>D01065351</t>
-  </si>
-  <si>
     <t>ISI-22031306</t>
   </si>
   <si>
-    <t>D01065353</t>
-  </si>
-  <si>
     <t>ISI-22031307</t>
   </si>
   <si>
-    <t>D01065352</t>
-  </si>
-  <si>
     <t>ISI-22031308</t>
   </si>
   <si>
-    <t>D01065350</t>
-  </si>
-  <si>
     <t>ISI-22031335</t>
   </si>
   <si>
@@ -459,30 +333,18 @@
     <t xml:space="preserve"> 13-09-2020 </t>
   </si>
   <si>
-    <t>D01065349</t>
-  </si>
-  <si>
     <t>ISI-22031371</t>
   </si>
   <si>
     <t xml:space="preserve"> 16-09-2020 </t>
   </si>
   <si>
-    <t>D01065444</t>
-  </si>
-  <si>
     <t>ISI-22031372</t>
   </si>
   <si>
-    <t>D01065442</t>
-  </si>
-  <si>
     <t>ISI-22031373</t>
   </si>
   <si>
-    <t>D01065447</t>
-  </si>
-  <si>
     <t>ISI-22031392</t>
   </si>
   <si>
@@ -492,27 +354,15 @@
     <t xml:space="preserve"> 19-09-2020 </t>
   </si>
   <si>
-    <t>D01065473</t>
-  </si>
-  <si>
     <t>ISI-22031393</t>
   </si>
   <si>
-    <t>D01065475</t>
-  </si>
-  <si>
     <t>ISI-22031394</t>
   </si>
   <si>
-    <t>D01065474</t>
-  </si>
-  <si>
     <t>ISI-22031399</t>
   </si>
   <si>
-    <t>D01065472</t>
-  </si>
-  <si>
     <t>ISI-22031640</t>
   </si>
   <si>
@@ -522,9 +372,6 @@
     <t xml:space="preserve"> 13-10-2020 </t>
   </si>
   <si>
-    <t>D01065873</t>
-  </si>
-  <si>
     <t>ISI-22031673</t>
   </si>
   <si>
@@ -534,21 +381,12 @@
     <t xml:space="preserve"> 18-10-2020 </t>
   </si>
   <si>
-    <t>D01065942</t>
-  </si>
-  <si>
     <t>ISI-22031674</t>
   </si>
   <si>
-    <t>D01065944</t>
-  </si>
-  <si>
     <t>ISI-22031675</t>
   </si>
   <si>
-    <t>D01065943</t>
-  </si>
-  <si>
     <t>ISI-22031678</t>
   </si>
   <si>
@@ -558,9 +396,6 @@
     <t xml:space="preserve"> 19-10-2020 </t>
   </si>
   <si>
-    <t>D01065945</t>
-  </si>
-  <si>
     <t>ISI-22040479</t>
   </si>
   <si>
@@ -570,9 +405,6 @@
     <t xml:space="preserve"> 08-07-2020 </t>
   </si>
   <si>
-    <t>SO4034404</t>
-  </si>
-  <si>
     <t>ISI-22040830</t>
   </si>
   <si>
@@ -582,9 +414,6 @@
     <t xml:space="preserve"> 23-09-2020 </t>
   </si>
   <si>
-    <t>SO4035095</t>
-  </si>
-  <si>
     <t>ISI-22040879</t>
   </si>
   <si>
@@ -594,9 +423,6 @@
     <t xml:space="preserve"> 04-10-2020 </t>
   </si>
   <si>
-    <t>SO4035178</t>
-  </si>
-  <si>
     <t>SCN-21830099</t>
   </si>
   <si>
@@ -618,51 +444,27 @@
     <t xml:space="preserve"> 10-12-2019 </t>
   </si>
   <si>
-    <t>D01061285</t>
-  </si>
-  <si>
     <t>ISI-22031075</t>
   </si>
   <si>
-    <t>D01064928</t>
-  </si>
-  <si>
     <t>ISI-22031183</t>
   </si>
   <si>
-    <t>D01065141</t>
-  </si>
-  <si>
     <t>ISI-22031184</t>
   </si>
   <si>
-    <t>D01065140</t>
-  </si>
-  <si>
     <t>ISI-22031206</t>
   </si>
   <si>
-    <t>D01065177</t>
-  </si>
-  <si>
     <t>ISI-22031247</t>
   </si>
   <si>
-    <t>D01065123</t>
-  </si>
-  <si>
     <t>ISI-22031248</t>
   </si>
   <si>
-    <t>D01065122</t>
-  </si>
-  <si>
     <t>ISI-22031314</t>
   </si>
   <si>
-    <t>D01065354</t>
-  </si>
-  <si>
     <t>ISI-22031485</t>
   </si>
   <si>
@@ -672,15 +474,9 @@
     <t xml:space="preserve"> 27-09-2020 </t>
   </si>
   <si>
-    <t>D01065609</t>
-  </si>
-  <si>
     <t>ISI-22031486</t>
   </si>
   <si>
-    <t>D01065608</t>
-  </si>
-  <si>
     <t>ISI-22031516</t>
   </si>
   <si>
@@ -690,21 +486,12 @@
     <t xml:space="preserve"> 28-09-2020 </t>
   </si>
   <si>
-    <t>D01065639</t>
-  </si>
-  <si>
     <t>ISI-22031535</t>
   </si>
   <si>
-    <t>D01065680</t>
-  </si>
-  <si>
     <t>ISI-22031539</t>
   </si>
   <si>
-    <t>D01065664</t>
-  </si>
-  <si>
     <t>ISI-22031648</t>
   </si>
   <si>
@@ -714,24 +501,15 @@
     <t xml:space="preserve"> 14-10-2020 </t>
   </si>
   <si>
-    <t>D01065882</t>
-  </si>
-  <si>
     <t>ISI-22040469</t>
   </si>
   <si>
     <t xml:space="preserve"> 07-04-2020 </t>
   </si>
   <si>
-    <t>SO4034384</t>
-  </si>
-  <si>
     <t>ISI-22040470</t>
   </si>
   <si>
-    <t>SO4034385</t>
-  </si>
-  <si>
     <t>ISI-22040691</t>
   </si>
   <si>
@@ -741,9 +519,6 @@
     <t xml:space="preserve"> 18-08-2020 </t>
   </si>
   <si>
-    <t>SO4034795</t>
-  </si>
-  <si>
     <t>ISI-22040703</t>
   </si>
   <si>
@@ -753,9 +528,6 @@
     <t xml:space="preserve"> 26-08-2020 </t>
   </si>
   <si>
-    <t>SO4034819</t>
-  </si>
-  <si>
     <t>ISI-22040742</t>
   </si>
   <si>
@@ -763,9 +535,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 06-09-2020 </t>
-  </si>
-  <si>
-    <t>SO4034907</t>
   </si>
   <si>
     <t>MSI-22030033</t>
@@ -1091,25 +860,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q157"/>
+  <dimension ref="A1:P157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q80"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="35" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="23.85546875" customWidth="1"/>
     <col min="17" max="17" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1158,31 +935,28 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
       </c>
       <c r="E2">
         <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1">
         <v>6073.2</v>
@@ -1197,45 +971,42 @@
         <v>6073.2</v>
       </c>
       <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>6073.2</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43944</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2">
-        <v>6073.2</v>
-      </c>
-      <c r="P2" s="2">
-        <v>43944</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1">
         <v>20241.900000000001</v>
@@ -1250,45 +1021,42 @@
         <v>20241.900000000001</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3">
+        <v>20241.900000000001</v>
+      </c>
+      <c r="O3" s="2">
+        <v>44040</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3">
-        <v>20241.900000000001</v>
-      </c>
-      <c r="P3" s="2">
-        <v>44040</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>36829.01</v>
@@ -1303,45 +1071,42 @@
         <v>36829.01</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>36829.01</v>
+      </c>
+      <c r="O4" s="2">
+        <v>44072</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4">
-        <v>36829.01</v>
-      </c>
-      <c r="P4" s="2">
-        <v>44072</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1">
         <v>39488.129999999997</v>
@@ -1356,45 +1121,42 @@
         <v>39488.129999999997</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5">
+        <v>66360</v>
+      </c>
+      <c r="O5" s="2">
+        <v>43986</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="O5">
-        <v>66360</v>
-      </c>
-      <c r="P5" s="2">
-        <v>43986</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1">
         <v>51723.49</v>
@@ -1409,45 +1171,42 @@
         <v>51723.49</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6">
+        <v>51723.49</v>
+      </c>
+      <c r="O6" s="2">
+        <v>44103</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O6">
-        <v>51723.49</v>
-      </c>
-      <c r="P6" s="2">
-        <v>44103</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2">
         <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1">
         <v>-2205</v>
@@ -1462,45 +1221,42 @@
         <v>-2205</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7">
+        <v>39</v>
+      </c>
+      <c r="N7">
         <v>2205</v>
       </c>
-      <c r="P7" s="2">
+      <c r="O7" s="2">
         <v>44066</v>
       </c>
-      <c r="Q7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1">
         <v>-3640.9</v>
@@ -1515,45 +1271,42 @@
         <v>-3640.9</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8">
+        <v>42</v>
+      </c>
+      <c r="N8">
         <v>3640.9</v>
       </c>
-      <c r="P8" s="2">
+      <c r="O8" s="2">
         <v>44026</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="P8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2">
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>-829.45</v>
@@ -1568,45 +1321,42 @@
         <v>-829.45</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9">
+        <v>44</v>
+      </c>
+      <c r="N9">
         <v>829.45</v>
       </c>
-      <c r="P9" s="2">
+      <c r="O9" s="2">
         <v>44059</v>
       </c>
-      <c r="Q9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <v>389</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1">
         <v>31641.119999999999</v>
@@ -1621,45 +1371,42 @@
         <v>31641.119999999999</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10">
+        <v>46</v>
+      </c>
+      <c r="N10">
         <v>31641.119999999999</v>
       </c>
-      <c r="P10" s="2">
+      <c r="O10" s="2">
         <v>44026</v>
       </c>
-      <c r="Q10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2">
         <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1">
         <v>16731.34</v>
@@ -1674,45 +1421,42 @@
         <v>16731.34</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11">
+        <v>49</v>
+      </c>
+      <c r="N11">
         <v>16731.34</v>
       </c>
-      <c r="P11" s="2">
+      <c r="O11" s="2">
         <v>44067</v>
       </c>
-      <c r="Q11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1">
         <v>7890.24</v>
@@ -1727,45 +1471,42 @@
         <v>7890.24</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" t="s">
-        <v>63</v>
-      </c>
-      <c r="O12">
+        <v>52</v>
+      </c>
+      <c r="N12">
         <v>7890.24</v>
       </c>
-      <c r="P12" s="2">
+      <c r="O12" s="2">
         <v>44040</v>
       </c>
-      <c r="Q12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="1">
         <v>17742.009999999998</v>
@@ -1780,45 +1521,42 @@
         <v>17742.009999999998</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>68</v>
-      </c>
-      <c r="N13" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13">
+        <v>55</v>
+      </c>
+      <c r="N13">
         <v>17742.009999999998</v>
       </c>
-      <c r="P13" s="2">
+      <c r="O13" s="2">
         <v>44040</v>
       </c>
-      <c r="Q13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="1">
         <v>10739.63</v>
@@ -1833,45 +1571,42 @@
         <v>10739.63</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14">
+        <v>56</v>
+      </c>
+      <c r="N14">
         <v>10739.63</v>
       </c>
-      <c r="P14" s="2">
+      <c r="O14" s="2">
         <v>44040</v>
       </c>
-      <c r="Q14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="1">
         <v>10300.5</v>
@@ -1886,45 +1621,42 @@
         <v>10300.5</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" t="s">
-        <v>72</v>
-      </c>
-      <c r="O15">
+        <v>58</v>
+      </c>
+      <c r="N15">
         <v>10300.5</v>
       </c>
-      <c r="P15" s="2">
+      <c r="O15" s="2">
         <v>44040</v>
       </c>
-      <c r="Q15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1">
         <v>15230.66</v>
@@ -1939,45 +1671,42 @@
         <v>15230.66</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16">
+        <v>61</v>
+      </c>
+      <c r="N16">
         <v>15230.66</v>
       </c>
-      <c r="P16" s="2">
+      <c r="O16" s="2">
         <v>44040</v>
       </c>
-      <c r="Q16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1">
         <v>13527.1</v>
@@ -1992,45 +1721,42 @@
         <v>13527.1</v>
       </c>
       <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17">
+        <v>13527.1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>44042</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M17" t="s">
-        <v>82</v>
-      </c>
-      <c r="N17" t="s">
-        <v>80</v>
-      </c>
-      <c r="O17">
-        <v>13527.1</v>
-      </c>
-      <c r="P17" s="2">
-        <v>44042</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1">
         <v>55977.599999999999</v>
@@ -2045,45 +1771,42 @@
         <v>55977.599999999999</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>86</v>
-      </c>
-      <c r="N18" t="s">
-        <v>83</v>
-      </c>
-      <c r="O18">
+        <v>66</v>
+      </c>
+      <c r="N18">
         <v>55977.599999999999</v>
       </c>
-      <c r="P18" s="2">
+      <c r="O18" s="2">
         <v>44040</v>
       </c>
-      <c r="Q18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1">
         <v>10300.5</v>
@@ -2098,45 +1821,42 @@
         <v>10300.5</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>88</v>
-      </c>
-      <c r="N19" t="s">
-        <v>87</v>
-      </c>
-      <c r="O19">
+        <v>69</v>
+      </c>
+      <c r="N19">
         <v>10300.5</v>
       </c>
-      <c r="P19" s="2">
+      <c r="O19" s="2">
         <v>44066</v>
       </c>
-      <c r="Q19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" s="1">
         <v>48780.480000000003</v>
@@ -2151,45 +1871,42 @@
         <v>48780.480000000003</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M20" t="s">
-        <v>92</v>
-      </c>
-      <c r="N20" t="s">
-        <v>89</v>
-      </c>
-      <c r="O20">
+        <v>70</v>
+      </c>
+      <c r="N20">
         <v>48780.480000000003</v>
       </c>
-      <c r="P20" s="2">
+      <c r="O20" s="2">
         <v>44040</v>
       </c>
-      <c r="Q20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1">
         <v>37084.75</v>
@@ -2204,45 +1921,42 @@
         <v>37084.75</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>96</v>
-      </c>
-      <c r="N21" t="s">
-        <v>93</v>
-      </c>
-      <c r="O21">
+        <v>73</v>
+      </c>
+      <c r="N21">
         <v>37084.75</v>
       </c>
-      <c r="P21" s="2">
+      <c r="O21" s="2">
         <v>44040</v>
       </c>
-      <c r="Q21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P21" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1">
         <v>5683.02</v>
@@ -2257,45 +1971,42 @@
         <v>5683.02</v>
       </c>
       <c r="L22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M22" t="s">
-        <v>98</v>
-      </c>
-      <c r="N22" t="s">
-        <v>97</v>
-      </c>
-      <c r="O22">
+        <v>76</v>
+      </c>
+      <c r="N22">
         <v>5683.02</v>
       </c>
-      <c r="P22" s="2">
+      <c r="O22" s="2">
         <v>44040</v>
       </c>
-      <c r="Q22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23" s="1">
         <v>16647.080000000002</v>
@@ -2310,45 +2021,42 @@
         <v>16647.080000000002</v>
       </c>
       <c r="L23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M23" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" t="s">
-        <v>99</v>
-      </c>
-      <c r="O23">
+        <v>77</v>
+      </c>
+      <c r="N23">
         <v>16647.080000000002</v>
       </c>
-      <c r="P23" s="2">
+      <c r="O23" s="2">
         <v>44040</v>
       </c>
-      <c r="Q23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1">
         <v>10773</v>
@@ -2363,45 +2071,42 @@
         <v>10773</v>
       </c>
       <c r="L24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M24" t="s">
-        <v>102</v>
-      </c>
-      <c r="N24" t="s">
-        <v>101</v>
-      </c>
-      <c r="O24">
+        <v>78</v>
+      </c>
+      <c r="N24">
         <v>10773</v>
       </c>
-      <c r="P24" s="2">
+      <c r="O24" s="2">
         <v>44040</v>
       </c>
-      <c r="Q24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1">
         <v>10773</v>
@@ -2416,45 +2121,42 @@
         <v>10773</v>
       </c>
       <c r="L25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M25" t="s">
-        <v>104</v>
-      </c>
-      <c r="N25" t="s">
-        <v>103</v>
-      </c>
-      <c r="O25">
+        <v>79</v>
+      </c>
+      <c r="N25">
         <v>10773</v>
       </c>
-      <c r="P25" s="2">
+      <c r="O25" s="2">
         <v>44040</v>
       </c>
-      <c r="Q25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H26" s="1">
         <v>10773</v>
@@ -2469,45 +2171,42 @@
         <v>10773</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M26" t="s">
-        <v>106</v>
-      </c>
-      <c r="N26" t="s">
-        <v>105</v>
-      </c>
-      <c r="O26">
+        <v>80</v>
+      </c>
+      <c r="N26">
         <v>10773</v>
       </c>
-      <c r="P26" s="2">
+      <c r="O26" s="2">
         <v>44040</v>
       </c>
-      <c r="Q26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1">
         <v>30901.5</v>
@@ -2522,45 +2221,42 @@
         <v>30901.5</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M27" t="s">
-        <v>108</v>
-      </c>
-      <c r="N27" t="s">
-        <v>107</v>
-      </c>
-      <c r="O27">
+        <v>81</v>
+      </c>
+      <c r="N27">
         <v>30901.5</v>
       </c>
-      <c r="P27" s="2">
+      <c r="O27" s="2">
         <v>44040</v>
       </c>
-      <c r="Q27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H28" s="1">
         <v>79968</v>
@@ -2575,45 +2271,42 @@
         <v>79968</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N28" t="s">
-        <v>109</v>
-      </c>
-      <c r="O28">
+        <v>82</v>
+      </c>
+      <c r="N28">
         <v>79968</v>
       </c>
-      <c r="P28" s="2">
+      <c r="O28" s="2">
         <v>44040</v>
       </c>
-      <c r="Q28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1">
         <v>39984</v>
@@ -2628,45 +2321,42 @@
         <v>39984</v>
       </c>
       <c r="L29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M29" t="s">
-        <v>112</v>
-      </c>
-      <c r="N29" t="s">
-        <v>111</v>
-      </c>
-      <c r="O29">
+        <v>83</v>
+      </c>
+      <c r="N29">
         <v>39984</v>
       </c>
-      <c r="P29" s="2">
+      <c r="O29" s="2">
         <v>44040</v>
       </c>
-      <c r="Q29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1">
         <v>39984</v>
@@ -2681,45 +2371,42 @@
         <v>39984</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M30" t="s">
-        <v>114</v>
-      </c>
-      <c r="N30" t="s">
-        <v>113</v>
-      </c>
-      <c r="O30">
+        <v>84</v>
+      </c>
+      <c r="N30">
         <v>39984</v>
       </c>
-      <c r="P30" s="2">
+      <c r="O30" s="2">
         <v>44040</v>
       </c>
-      <c r="Q30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="1">
         <v>87964.800000000003</v>
@@ -2734,45 +2421,42 @@
         <v>87964.800000000003</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M31" t="s">
-        <v>116</v>
-      </c>
-      <c r="N31" t="s">
-        <v>115</v>
-      </c>
-      <c r="O31">
+        <v>85</v>
+      </c>
+      <c r="N31">
         <v>87964.800000000003</v>
       </c>
-      <c r="P31" s="2">
+      <c r="O31" s="2">
         <v>44040</v>
       </c>
-      <c r="Q31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P31" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="1">
         <v>21473.88</v>
@@ -2787,45 +2471,42 @@
         <v>21473.88</v>
       </c>
       <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" t="s">
+        <v>86</v>
+      </c>
+      <c r="N32">
+        <v>21473.88</v>
+      </c>
+      <c r="O32" s="2">
+        <v>44042</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M32" t="s">
-        <v>118</v>
-      </c>
-      <c r="N32" t="s">
-        <v>117</v>
-      </c>
-      <c r="O32">
-        <v>21473.88</v>
-      </c>
-      <c r="P32" s="2">
-        <v>44042</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" s="1">
         <v>35910</v>
@@ -2840,45 +2521,42 @@
         <v>35910</v>
       </c>
       <c r="L33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M33" t="s">
-        <v>120</v>
-      </c>
-      <c r="N33" t="s">
-        <v>119</v>
-      </c>
-      <c r="O33">
+        <v>87</v>
+      </c>
+      <c r="N33">
         <v>35910</v>
       </c>
-      <c r="P33" s="2">
+      <c r="O33" s="2">
         <v>44040</v>
       </c>
-      <c r="Q33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1">
         <v>9717.75</v>
@@ -2893,45 +2571,42 @@
         <v>9717.75</v>
       </c>
       <c r="L34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M34" t="s">
-        <v>122</v>
-      </c>
-      <c r="N34" t="s">
-        <v>121</v>
-      </c>
-      <c r="O34">
+        <v>88</v>
+      </c>
+      <c r="N34">
         <v>9717.75</v>
       </c>
-      <c r="P34" s="2">
+      <c r="O34" s="2">
         <v>44040</v>
       </c>
-      <c r="Q34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35" s="1">
         <v>14860.51</v>
@@ -2946,45 +2621,42 @@
         <v>14860.51</v>
       </c>
       <c r="L35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M35" t="s">
-        <v>124</v>
-      </c>
-      <c r="N35" t="s">
-        <v>123</v>
-      </c>
-      <c r="O35">
+        <v>89</v>
+      </c>
+      <c r="N35">
         <v>14860.51</v>
       </c>
-      <c r="P35" s="2">
+      <c r="O35" s="2">
         <v>44040</v>
       </c>
-      <c r="Q35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H36" s="1">
         <v>8751.86</v>
@@ -2999,45 +2671,42 @@
         <v>8751.86</v>
       </c>
       <c r="L36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M36" t="s">
-        <v>126</v>
-      </c>
-      <c r="N36" t="s">
-        <v>125</v>
-      </c>
-      <c r="O36">
+        <v>90</v>
+      </c>
+      <c r="N36">
         <v>8751.86</v>
       </c>
-      <c r="P36" s="2">
+      <c r="O36" s="2">
         <v>44040</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="P36" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H37" s="1">
         <v>4654.93</v>
@@ -3052,45 +2721,42 @@
         <v>4654.93</v>
       </c>
       <c r="L37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M37" t="s">
-        <v>128</v>
-      </c>
-      <c r="N37" t="s">
-        <v>127</v>
-      </c>
-      <c r="O37">
+        <v>91</v>
+      </c>
+      <c r="N37">
         <v>4654.93</v>
       </c>
-      <c r="P37" s="2">
+      <c r="O37" s="2">
         <v>44072</v>
       </c>
-      <c r="Q37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P37" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H38" s="1">
         <v>10516.6</v>
@@ -3105,45 +2771,42 @@
         <v>10516.6</v>
       </c>
       <c r="L38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M38" t="s">
-        <v>130</v>
-      </c>
-      <c r="N38" t="s">
-        <v>129</v>
-      </c>
-      <c r="O38">
+        <v>92</v>
+      </c>
+      <c r="N38">
         <v>10516.6</v>
       </c>
-      <c r="P38" s="2">
+      <c r="O38" s="2">
         <v>44072</v>
       </c>
-      <c r="Q38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P38" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H39" s="1">
         <v>26389.439999999999</v>
@@ -3158,45 +2821,42 @@
         <v>26389.439999999999</v>
       </c>
       <c r="L39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M39" t="s">
-        <v>134</v>
-      </c>
-      <c r="N39" t="s">
-        <v>131</v>
-      </c>
-      <c r="O39">
+        <v>93</v>
+      </c>
+      <c r="N39">
         <v>26389.439999999999</v>
       </c>
-      <c r="P39" s="2">
+      <c r="O39" s="2">
         <v>44072</v>
       </c>
-      <c r="Q39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P39" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H40" s="1">
         <v>7996.8</v>
@@ -3211,45 +2871,42 @@
         <v>7996.8</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M40" t="s">
-        <v>136</v>
-      </c>
-      <c r="N40" t="s">
-        <v>135</v>
-      </c>
-      <c r="O40">
+        <v>96</v>
+      </c>
+      <c r="N40">
         <v>7996.8</v>
       </c>
-      <c r="P40" s="2">
+      <c r="O40" s="2">
         <v>44072</v>
       </c>
-      <c r="Q40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P40" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H41" s="1">
         <v>7996.8</v>
@@ -3264,45 +2921,42 @@
         <v>7996.8</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M41" t="s">
-        <v>138</v>
-      </c>
-      <c r="N41" t="s">
-        <v>137</v>
-      </c>
-      <c r="O41">
+        <v>97</v>
+      </c>
+      <c r="N41">
         <v>7996.8</v>
       </c>
-      <c r="P41" s="2">
+      <c r="O41" s="2">
         <v>44072</v>
       </c>
-      <c r="Q41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P41" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H42" s="1">
         <v>10773</v>
@@ -3317,45 +2971,42 @@
         <v>10773</v>
       </c>
       <c r="L42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M42" t="s">
-        <v>140</v>
-      </c>
-      <c r="N42" t="s">
-        <v>139</v>
-      </c>
-      <c r="O42">
+        <v>98</v>
+      </c>
+      <c r="N42">
         <v>10773</v>
       </c>
-      <c r="P42" s="2">
+      <c r="O42" s="2">
         <v>44072</v>
       </c>
-      <c r="Q42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P42" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H43" s="1">
         <v>18797.189999999999</v>
@@ -3370,45 +3021,42 @@
         <v>18797.189999999999</v>
       </c>
       <c r="L43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M43" t="s">
-        <v>144</v>
-      </c>
-      <c r="N43" t="s">
-        <v>141</v>
-      </c>
-      <c r="O43">
+        <v>99</v>
+      </c>
+      <c r="N43">
         <v>18797.189999999999</v>
       </c>
-      <c r="P43" s="2">
+      <c r="O43" s="2">
         <v>44072</v>
       </c>
-      <c r="Q43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P43" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H44" s="1">
         <v>13045</v>
@@ -3423,45 +3071,42 @@
         <v>13045</v>
       </c>
       <c r="L44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M44" t="s">
-        <v>147</v>
-      </c>
-      <c r="N44" t="s">
-        <v>145</v>
-      </c>
-      <c r="O44">
+        <v>102</v>
+      </c>
+      <c r="N44">
         <v>13045</v>
       </c>
-      <c r="P44" s="2">
+      <c r="O44" s="2">
         <v>44072</v>
       </c>
-      <c r="Q44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P44" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H45" s="1">
         <v>12723.51</v>
@@ -3476,45 +3121,42 @@
         <v>12723.51</v>
       </c>
       <c r="L45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M45" t="s">
-        <v>149</v>
-      </c>
-      <c r="N45" t="s">
-        <v>148</v>
-      </c>
-      <c r="O45">
+        <v>104</v>
+      </c>
+      <c r="N45">
         <v>12723.51</v>
       </c>
-      <c r="P45" s="2">
+      <c r="O45" s="2">
         <v>44072</v>
       </c>
-      <c r="Q45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H46" s="1">
         <v>10773</v>
@@ -3529,45 +3171,42 @@
         <v>10773</v>
       </c>
       <c r="L46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M46" t="s">
-        <v>151</v>
-      </c>
-      <c r="N46" t="s">
-        <v>150</v>
-      </c>
-      <c r="O46">
+        <v>105</v>
+      </c>
+      <c r="N46">
         <v>10773</v>
       </c>
-      <c r="P46" s="2">
+      <c r="O46" s="2">
         <v>44072</v>
       </c>
-      <c r="Q46" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P46" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H47" s="1">
         <v>13820.86</v>
@@ -3582,45 +3221,42 @@
         <v>13820.86</v>
       </c>
       <c r="L47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M47" t="s">
-        <v>155</v>
-      </c>
-      <c r="N47" t="s">
-        <v>152</v>
-      </c>
-      <c r="O47">
+        <v>106</v>
+      </c>
+      <c r="N47">
         <v>13820.86</v>
       </c>
-      <c r="P47" s="2">
+      <c r="O47" s="2">
         <v>44072</v>
       </c>
-      <c r="Q47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P47" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H48" s="1">
         <v>12989.64</v>
@@ -3635,45 +3271,42 @@
         <v>12989.64</v>
       </c>
       <c r="L48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M48" t="s">
-        <v>157</v>
-      </c>
-      <c r="N48" t="s">
-        <v>156</v>
-      </c>
-      <c r="O48">
+        <v>109</v>
+      </c>
+      <c r="N48">
         <v>12989.64</v>
       </c>
-      <c r="P48" s="2">
+      <c r="O48" s="2">
         <v>44072</v>
       </c>
-      <c r="Q48" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P48" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H49" s="1">
         <v>7896.61</v>
@@ -3688,45 +3321,42 @@
         <v>7896.61</v>
       </c>
       <c r="L49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M49" t="s">
-        <v>159</v>
-      </c>
-      <c r="N49" t="s">
-        <v>158</v>
-      </c>
-      <c r="O49">
+        <v>110</v>
+      </c>
+      <c r="N49">
         <v>7896.61</v>
       </c>
-      <c r="P49" s="2">
+      <c r="O49" s="2">
         <v>44072</v>
       </c>
-      <c r="Q49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P49" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H50" s="1">
         <v>13183.56</v>
@@ -3741,45 +3371,42 @@
         <v>13183.56</v>
       </c>
       <c r="L50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M50" t="s">
-        <v>161</v>
-      </c>
-      <c r="N50" t="s">
-        <v>160</v>
-      </c>
-      <c r="O50">
+        <v>111</v>
+      </c>
+      <c r="N50">
         <v>13183.56</v>
       </c>
-      <c r="P50" s="2">
+      <c r="O50" s="2">
         <v>44072</v>
       </c>
-      <c r="Q50" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P50" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H51" s="1">
         <v>39861.300000000003</v>
@@ -3794,45 +3421,42 @@
         <v>39861.300000000003</v>
       </c>
       <c r="L51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M51" t="s">
-        <v>165</v>
-      </c>
-      <c r="N51" t="s">
-        <v>162</v>
-      </c>
-      <c r="O51">
+        <v>112</v>
+      </c>
+      <c r="N51">
         <v>39861.300000000003</v>
       </c>
-      <c r="P51" s="2">
+      <c r="O51" s="2">
         <v>44103</v>
       </c>
-      <c r="Q51" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P51" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="E52" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H52" s="1">
         <v>11799</v>
@@ -3847,45 +3471,42 @@
         <v>11799</v>
       </c>
       <c r="L52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M52" t="s">
-        <v>169</v>
-      </c>
-      <c r="N52" t="s">
-        <v>166</v>
-      </c>
-      <c r="O52">
+        <v>115</v>
+      </c>
+      <c r="N52">
         <v>11799</v>
       </c>
-      <c r="P52" s="2">
+      <c r="O52" s="2">
         <v>44103</v>
       </c>
-      <c r="Q52" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P52" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H53" s="1">
         <v>11799</v>
@@ -3900,45 +3521,42 @@
         <v>11799</v>
       </c>
       <c r="L53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M53" t="s">
-        <v>171</v>
-      </c>
-      <c r="N53" t="s">
-        <v>170</v>
-      </c>
-      <c r="O53">
+        <v>118</v>
+      </c>
+      <c r="N53">
         <v>11799</v>
       </c>
-      <c r="P53" s="2">
+      <c r="O53" s="2">
         <v>44103</v>
       </c>
-      <c r="Q53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P53" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H54" s="1">
         <v>11325.51</v>
@@ -3953,45 +3571,42 @@
         <v>11325.51</v>
       </c>
       <c r="L54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M54" t="s">
-        <v>173</v>
-      </c>
-      <c r="N54" t="s">
-        <v>172</v>
-      </c>
-      <c r="O54">
+        <v>119</v>
+      </c>
+      <c r="N54">
         <v>11325.51</v>
       </c>
-      <c r="P54" s="2">
+      <c r="O54" s="2">
         <v>44103</v>
       </c>
-      <c r="Q54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P54" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H55" s="1">
         <v>11799</v>
@@ -4006,45 +3621,42 @@
         <v>11799</v>
       </c>
       <c r="L55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M55" t="s">
-        <v>177</v>
-      </c>
-      <c r="N55" t="s">
-        <v>174</v>
-      </c>
-      <c r="O55">
+        <v>120</v>
+      </c>
+      <c r="N55">
         <v>11799</v>
       </c>
-      <c r="P55" s="2">
+      <c r="O55" s="2">
         <v>44103</v>
       </c>
-      <c r="Q55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P55" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="E56">
         <v>21</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H56" s="1">
         <v>134820</v>
@@ -4059,45 +3671,42 @@
         <v>134820</v>
       </c>
       <c r="L56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M56" t="s">
-        <v>181</v>
-      </c>
-      <c r="N56" t="s">
-        <v>178</v>
-      </c>
-      <c r="O56">
+        <v>123</v>
+      </c>
+      <c r="N56">
         <v>134820</v>
       </c>
-      <c r="P56" s="2">
+      <c r="O56" s="2">
         <v>44040</v>
       </c>
-      <c r="Q56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P56" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="D57" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H57" s="1">
         <v>44940</v>
@@ -4112,45 +3721,42 @@
         <v>44940</v>
       </c>
       <c r="L57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M57" t="s">
-        <v>185</v>
-      </c>
-      <c r="N57" t="s">
-        <v>182</v>
-      </c>
-      <c r="O57">
+        <v>126</v>
+      </c>
+      <c r="N57">
         <v>44940</v>
       </c>
-      <c r="P57" s="2">
+      <c r="O57" s="2">
         <v>44072</v>
       </c>
-      <c r="Q57" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P57" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="D58" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H58" s="1">
         <v>44940</v>
@@ -4165,45 +3771,42 @@
         <v>44940</v>
       </c>
       <c r="L58" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" t="s">
+        <v>129</v>
+      </c>
+      <c r="N58">
+        <v>44940</v>
+      </c>
+      <c r="O58" s="2">
+        <v>44103</v>
+      </c>
+      <c r="P58" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M58" t="s">
-        <v>189</v>
-      </c>
-      <c r="N58" t="s">
-        <v>186</v>
-      </c>
-      <c r="O58">
-        <v>44940</v>
-      </c>
-      <c r="P58" s="2">
-        <v>44103</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="D59" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="E59" s="2">
         <v>373</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H59">
         <v>-744.19</v>
@@ -4218,45 +3821,42 @@
         <v>-744.19</v>
       </c>
       <c r="L59" t="s">
-        <v>193</v>
-      </c>
-      <c r="M59">
-        <v>580</v>
-      </c>
-      <c r="N59" t="s">
-        <v>190</v>
-      </c>
-      <c r="O59">
+        <v>135</v>
+      </c>
+      <c r="M59" t="s">
+        <v>132</v>
+      </c>
+      <c r="N59">
         <v>744.18</v>
       </c>
-      <c r="P59" s="2">
+      <c r="O59" s="2">
         <v>43940</v>
       </c>
-      <c r="Q59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P59" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="E60">
         <v>232</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H60" s="1">
         <v>47864.09</v>
@@ -4271,45 +3871,42 @@
         <v>47864.09</v>
       </c>
       <c r="L60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M60" t="s">
-        <v>197</v>
-      </c>
-      <c r="N60" t="s">
-        <v>194</v>
-      </c>
-      <c r="O60">
+        <v>136</v>
+      </c>
+      <c r="N60">
         <v>47864.09</v>
       </c>
-      <c r="P60" s="2">
+      <c r="O60" s="2">
         <v>44066</v>
       </c>
-      <c r="Q60" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P60" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H61" s="1">
         <v>68304.600000000006</v>
@@ -4324,45 +3921,42 @@
         <v>68304.600000000006</v>
       </c>
       <c r="L61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M61" t="s">
-        <v>199</v>
-      </c>
-      <c r="N61" t="s">
-        <v>198</v>
-      </c>
-      <c r="O61">
+        <v>139</v>
+      </c>
+      <c r="N61">
         <v>68304.600000000006</v>
       </c>
-      <c r="P61" s="2">
+      <c r="O61" s="2">
         <v>44040</v>
       </c>
-      <c r="Q61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P61" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H62" s="1">
         <v>50518.68</v>
@@ -4377,45 +3971,42 @@
         <v>50518.68</v>
       </c>
       <c r="L62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M62" t="s">
-        <v>201</v>
-      </c>
-      <c r="N62" t="s">
-        <v>200</v>
-      </c>
-      <c r="O62">
+        <v>140</v>
+      </c>
+      <c r="N62">
         <v>50518.68</v>
       </c>
-      <c r="P62" s="2">
+      <c r="O62" s="2">
         <v>44040</v>
       </c>
-      <c r="Q62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P62" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D63" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H63" s="1">
         <v>36227.919999999998</v>
@@ -4430,45 +4021,42 @@
         <v>36227.919999999998</v>
       </c>
       <c r="L63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M63" t="s">
-        <v>203</v>
-      </c>
-      <c r="N63" t="s">
-        <v>202</v>
-      </c>
-      <c r="O63">
+        <v>141</v>
+      </c>
+      <c r="N63">
         <v>36227.919999999998</v>
       </c>
-      <c r="P63" s="2">
+      <c r="O63" s="2">
         <v>44040</v>
       </c>
-      <c r="Q63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P63" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H64" s="1">
         <v>28988.59</v>
@@ -4483,45 +4071,42 @@
         <v>28988.59</v>
       </c>
       <c r="L64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M64" t="s">
-        <v>205</v>
-      </c>
-      <c r="N64" t="s">
-        <v>204</v>
-      </c>
-      <c r="O64">
+        <v>142</v>
+      </c>
+      <c r="N64">
         <v>28988.59</v>
       </c>
-      <c r="P64" s="2">
+      <c r="O64" s="2">
         <v>44040</v>
       </c>
-      <c r="Q64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P64" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H65" s="1">
         <v>25563.14</v>
@@ -4536,45 +4121,42 @@
         <v>25563.14</v>
       </c>
       <c r="L65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M65" t="s">
-        <v>207</v>
-      </c>
-      <c r="N65" t="s">
-        <v>206</v>
-      </c>
-      <c r="O65">
+        <v>143</v>
+      </c>
+      <c r="N65">
         <v>25563.14</v>
       </c>
-      <c r="P65" s="2">
+      <c r="O65" s="2">
         <v>44040</v>
       </c>
-      <c r="Q65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P65" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H66" s="1">
         <v>37072.480000000003</v>
@@ -4589,45 +4171,42 @@
         <v>37072.480000000003</v>
       </c>
       <c r="L66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M66" t="s">
-        <v>209</v>
-      </c>
-      <c r="N66" t="s">
-        <v>208</v>
-      </c>
-      <c r="O66">
+        <v>144</v>
+      </c>
+      <c r="N66">
         <v>37072.480000000003</v>
       </c>
-      <c r="P66" s="2">
+      <c r="O66" s="2">
         <v>44040</v>
       </c>
-      <c r="Q66" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P66" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H67" s="1">
         <v>74743.91</v>
@@ -4642,45 +4221,42 @@
         <v>74743.91</v>
       </c>
       <c r="L67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M67" t="s">
-        <v>211</v>
-      </c>
-      <c r="N67" t="s">
-        <v>210</v>
-      </c>
-      <c r="O67">
+        <v>145</v>
+      </c>
+      <c r="N67">
         <v>74743.91</v>
       </c>
-      <c r="P67" s="2">
+      <c r="O67" s="2">
         <v>44072</v>
       </c>
-      <c r="Q67" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P67" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H68" s="1">
         <v>56082.75</v>
@@ -4695,45 +4271,42 @@
         <v>56082.75</v>
       </c>
       <c r="L68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M68" t="s">
-        <v>215</v>
-      </c>
-      <c r="N68" t="s">
-        <v>212</v>
-      </c>
-      <c r="O68">
+        <v>146</v>
+      </c>
+      <c r="N68">
         <v>56082.75</v>
       </c>
-      <c r="P68" s="2">
+      <c r="O68" s="2">
         <v>44072</v>
       </c>
-      <c r="Q68" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P68" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="D69" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H69" s="1">
         <v>21073.72</v>
@@ -4748,45 +4321,42 @@
         <v>21073.72</v>
       </c>
       <c r="L69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M69" t="s">
-        <v>217</v>
-      </c>
-      <c r="N69" t="s">
-        <v>216</v>
-      </c>
-      <c r="O69">
+        <v>149</v>
+      </c>
+      <c r="N69">
         <v>21073.72</v>
       </c>
-      <c r="P69" s="2">
+      <c r="O69" s="2">
         <v>44072</v>
       </c>
-      <c r="Q69" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P69" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="D70" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H70" s="1">
         <v>35950.07</v>
@@ -4801,45 +4371,42 @@
         <v>35950.07</v>
       </c>
       <c r="L70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M70" t="s">
-        <v>221</v>
-      </c>
-      <c r="N70" t="s">
-        <v>218</v>
-      </c>
-      <c r="O70">
+        <v>150</v>
+      </c>
+      <c r="N70">
         <v>35950.07</v>
       </c>
-      <c r="P70" s="2">
+      <c r="O70" s="2">
         <v>44072</v>
       </c>
-      <c r="Q70" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P70" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="D71" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H71" s="1">
         <v>43785</v>
@@ -4854,45 +4421,42 @@
         <v>43785</v>
       </c>
       <c r="L71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M71" t="s">
-        <v>223</v>
-      </c>
-      <c r="N71" t="s">
-        <v>222</v>
-      </c>
-      <c r="O71">
+        <v>153</v>
+      </c>
+      <c r="N71">
         <v>43785</v>
       </c>
-      <c r="P71" s="2">
+      <c r="O71" s="2">
         <v>44072</v>
       </c>
-      <c r="Q71" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P71" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="D72" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H72" s="1">
         <v>35973.449999999997</v>
@@ -4907,45 +4471,42 @@
         <v>35973.449999999997</v>
       </c>
       <c r="L72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M72" t="s">
-        <v>225</v>
-      </c>
-      <c r="N72" t="s">
-        <v>224</v>
-      </c>
-      <c r="O72">
+        <v>154</v>
+      </c>
+      <c r="N72">
         <v>35973.449999999997</v>
       </c>
-      <c r="P72" s="2">
+      <c r="O72" s="2">
         <v>44072</v>
       </c>
-      <c r="Q72" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P72" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H73" s="1">
         <v>24696.83</v>
@@ -4960,45 +4521,42 @@
         <v>24696.83</v>
       </c>
       <c r="L73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M73" t="s">
-        <v>229</v>
-      </c>
-      <c r="N73" t="s">
-        <v>226</v>
-      </c>
-      <c r="O73">
+        <v>155</v>
+      </c>
+      <c r="N73">
         <v>24696.83</v>
       </c>
-      <c r="P73" s="2">
+      <c r="O73" s="2">
         <v>44103</v>
       </c>
-      <c r="Q73" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P73" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="D74" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="E74">
         <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H74" s="1">
         <v>29988</v>
@@ -5013,45 +4571,42 @@
         <v>29988</v>
       </c>
       <c r="L74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M74" t="s">
-        <v>232</v>
-      </c>
-      <c r="N74" t="s">
-        <v>230</v>
-      </c>
-      <c r="O74">
+        <v>158</v>
+      </c>
+      <c r="N74">
         <v>29988</v>
       </c>
-      <c r="P74" s="2">
+      <c r="O74" s="2">
         <v>44040</v>
       </c>
-      <c r="Q74" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P74" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>233</v>
+        <v>160</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="D75" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2">
         <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H75">
         <v>359.86</v>
@@ -5066,45 +4621,42 @@
         <v>359.86</v>
       </c>
       <c r="L75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M75" t="s">
-        <v>234</v>
-      </c>
-      <c r="N75" t="s">
-        <v>233</v>
-      </c>
-      <c r="O75">
+        <v>160</v>
+      </c>
+      <c r="N75">
         <v>359.86</v>
       </c>
-      <c r="P75" s="2">
+      <c r="O75" s="2">
         <v>44040</v>
       </c>
-      <c r="Q75" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P75" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="D76" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H76" s="1">
         <v>9996</v>
@@ -5119,45 +4671,42 @@
         <v>9996</v>
       </c>
       <c r="L76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M76" t="s">
-        <v>238</v>
-      </c>
-      <c r="N76" t="s">
-        <v>235</v>
-      </c>
-      <c r="O76">
+        <v>161</v>
+      </c>
+      <c r="N76">
         <v>9996</v>
       </c>
-      <c r="P76" s="2">
+      <c r="O76" s="2">
         <v>44040</v>
       </c>
-      <c r="Q76" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P76" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="D77" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H77" s="1">
         <v>19992</v>
@@ -5172,45 +4721,42 @@
         <v>19992</v>
       </c>
       <c r="L77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M77" t="s">
-        <v>242</v>
-      </c>
-      <c r="N77" t="s">
-        <v>239</v>
-      </c>
-      <c r="O77">
+        <v>164</v>
+      </c>
+      <c r="N77">
         <v>19992</v>
       </c>
-      <c r="P77" s="2">
+      <c r="O77" s="2">
         <v>44040</v>
       </c>
-      <c r="Q77" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P77" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="D78" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H78" s="1">
         <v>59976</v>
@@ -5225,45 +4771,42 @@
         <v>59976</v>
       </c>
       <c r="L78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M78" t="s">
-        <v>246</v>
-      </c>
-      <c r="N78" t="s">
-        <v>243</v>
-      </c>
-      <c r="O78">
+        <v>167</v>
+      </c>
+      <c r="N78">
         <v>59976</v>
       </c>
-      <c r="P78" s="2">
+      <c r="O78" s="2">
         <v>44072</v>
       </c>
-      <c r="Q78" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P78" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D79" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H79" s="1">
         <v>30240</v>
@@ -5278,557 +4821,632 @@
         <v>30240</v>
       </c>
       <c r="L79" t="s">
-        <v>248</v>
-      </c>
-      <c r="M79">
-        <v>780</v>
-      </c>
-      <c r="N79" t="s">
-        <v>247</v>
-      </c>
-      <c r="O79">
+        <v>171</v>
+      </c>
+      <c r="M79" t="s">
+        <v>170</v>
+      </c>
+      <c r="N79">
         <v>30240</v>
       </c>
-      <c r="P79" s="2">
+      <c r="O79" s="2">
         <v>44040</v>
       </c>
-      <c r="Q79" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P79" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="E81" s="2"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P81" s="2"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P82" s="2"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
       <c r="E83" s="2"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P83" s="2"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P84" s="2"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="E85" s="2"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P85" s="2"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P86" s="2"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
       <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P87" s="2"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P88" s="2"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
       <c r="E89" s="2"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P89" s="2"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P90" s="2"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="E91" s="2"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P91" s="2"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P92" s="2"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="E93" s="2"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P93" s="2"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P94" s="2"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="E95" s="2"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P95" s="2"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P96" s="2"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="E97" s="2"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P97" s="2"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P98" s="2"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="E99" s="2"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P99" s="2"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P100" s="2"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="E101" s="2"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P101" s="2"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
-    </row>
-    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P102" s="2"/>
+    </row>
+    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="E103" s="2"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P103" s="2"/>
+    </row>
+    <row r="104" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P104" s="2"/>
+    </row>
+    <row r="105" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="E105" s="2"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
-    </row>
-    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P105" s="2"/>
+    </row>
+    <row r="106" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P106" s="2"/>
+    </row>
+    <row r="107" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="E107" s="2"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P107" s="2"/>
+    </row>
+    <row r="108" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P108" s="2"/>
+    </row>
+    <row r="109" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="E109" s="2"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
-    </row>
-    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P109" s="2"/>
+    </row>
+    <row r="110" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
-    </row>
-    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P110" s="2"/>
+    </row>
+    <row r="111" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="E111" s="2"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
-    </row>
-    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P111" s="2"/>
+    </row>
+    <row r="112" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P112" s="2"/>
+    </row>
+    <row r="113" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="E113" s="2"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
-    </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P113" s="2"/>
+    </row>
+    <row r="114" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
-    </row>
-    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P114" s="2"/>
+    </row>
+    <row r="115" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="E115" s="2"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P115" s="2"/>
+    </row>
+    <row r="116" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
-    </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P116" s="2"/>
+    </row>
+    <row r="117" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="E117" s="2"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
-    </row>
-    <row r="118" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P117" s="2"/>
+    </row>
+    <row r="118" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
-    </row>
-    <row r="119" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P118" s="2"/>
+    </row>
+    <row r="119" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="E119" s="2"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
-    </row>
-    <row r="120" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P119" s="2"/>
+    </row>
+    <row r="120" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P120" s="2"/>
+    </row>
+    <row r="121" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="E121" s="2"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
-    </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P121" s="2"/>
+    </row>
+    <row r="122" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
-    </row>
-    <row r="123" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P122" s="2"/>
+    </row>
+    <row r="123" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="E123" s="2"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
-    </row>
-    <row r="124" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P123" s="2"/>
+    </row>
+    <row r="124" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
-    </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P124" s="2"/>
+    </row>
+    <row r="125" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="E125" s="2"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
-    </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P125" s="2"/>
+    </row>
+    <row r="126" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
-    </row>
-    <row r="127" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P126" s="2"/>
+    </row>
+    <row r="127" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="E127" s="2"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
-    </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P127" s="2"/>
+    </row>
+    <row r="128" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
-    </row>
-    <row r="129" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P128" s="2"/>
+    </row>
+    <row r="129" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="E129" s="2"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
-    </row>
-    <row r="130" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P129" s="2"/>
+    </row>
+    <row r="130" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
-    </row>
-    <row r="131" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P130" s="2"/>
+    </row>
+    <row r="131" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="E131" s="2"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
-    </row>
-    <row r="132" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P131" s="2"/>
+    </row>
+    <row r="132" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
-    </row>
-    <row r="133" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P132" s="2"/>
+    </row>
+    <row r="133" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="E133" s="2"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
-    </row>
-    <row r="134" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P133" s="2"/>
+    </row>
+    <row r="134" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
-    </row>
-    <row r="135" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P134" s="2"/>
+    </row>
+    <row r="135" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="E135" s="2"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
-    </row>
-    <row r="136" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P135" s="2"/>
+    </row>
+    <row r="136" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
-    </row>
-    <row r="137" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P136" s="2"/>
+    </row>
+    <row r="137" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P137" s="2"/>
+    </row>
+    <row r="138" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
-    </row>
-    <row r="139" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P138" s="2"/>
+    </row>
+    <row r="139" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="E139" s="2"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
-    </row>
-    <row r="140" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P139" s="2"/>
+    </row>
+    <row r="140" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
-    </row>
-    <row r="141" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P140" s="2"/>
+    </row>
+    <row r="141" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="E141" s="2"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
-    </row>
-    <row r="142" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P141" s="2"/>
+    </row>
+    <row r="142" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
-    </row>
-    <row r="143" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P142" s="2"/>
+    </row>
+    <row r="143" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="E143" s="2"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
-    </row>
-    <row r="144" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P143" s="2"/>
+    </row>
+    <row r="144" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
-    </row>
-    <row r="145" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P144" s="2"/>
+    </row>
+    <row r="145" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="E145" s="2"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
-    </row>
-    <row r="146" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P145" s="2"/>
+    </row>
+    <row r="146" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
-    </row>
-    <row r="147" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P146" s="2"/>
+    </row>
+    <row r="147" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="E147" s="2"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
-    </row>
-    <row r="148" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P147" s="2"/>
+    </row>
+    <row r="148" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
-    </row>
-    <row r="149" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P148" s="2"/>
+    </row>
+    <row r="149" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="E149" s="2"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
-    </row>
-    <row r="150" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P149" s="2"/>
+    </row>
+    <row r="150" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
-    </row>
-    <row r="151" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P150" s="2"/>
+    </row>
+    <row r="151" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="E151" s="2"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
-    </row>
-    <row r="152" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P151" s="2"/>
+    </row>
+    <row r="152" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
-    </row>
-    <row r="153" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P152" s="2"/>
+    </row>
+    <row r="153" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="E153" s="2"/>
-    </row>
-    <row r="154" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P153" s="2"/>
+    </row>
+    <row r="154" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
-    </row>
-    <row r="155" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P154" s="2"/>
+    </row>
+    <row r="155" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="E155" s="2"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
-    </row>
-    <row r="156" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P155" s="2"/>
+    </row>
+    <row r="156" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
-    </row>
-    <row r="157" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="P156" s="2"/>
+    </row>
+    <row r="157" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="E157" s="2"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
+      <c r="P157" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
